--- a/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
+++ b/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
@@ -167,7 +167,7 @@
     <t>01 April 2000</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Andy Greenberg June 2017),(Citation: Charles McLellan March 2016),(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Andy Greenberg June 2017),(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Charles McLellan March 2016),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
   </si>
   <si>
     <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>

--- a/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
+++ b/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
@@ -167,10 +167,10 @@
     <t>01 April 2000</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Andy Greenberg June 2017),(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Charles McLellan March 2016),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Andy Greenberg June 2017),(Citation: Charles McLellan March 2016),(Citation: Booz Allen Hamilton),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
   </si>
   <si>
     <t>,(Citation: Marshall Abrams July 2008),</t>

--- a/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
+++ b/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
@@ -167,10 +167,10 @@
     <t>01 April 2000</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Andy Greenberg June 2017),(Citation: Charles McLellan March 2016),(Citation: Booz Allen Hamilton),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Booz Allen Hamilton),(Citation: Andy Greenberg June 2017),(Citation: Ukraine15 - EISAC - 201603),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
   </si>
   <si>
     <t>,(Citation: Marshall Abrams July 2008),</t>

--- a/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
+++ b/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
@@ -167,10 +167,10 @@
     <t>01 April 2000</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Booz Allen Hamilton),(Citation: Andy Greenberg June 2017),(Citation: Ukraine15 - EISAC - 201603),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Andy Greenberg June 2017),(Citation: Charles McLellan March 2016),(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
   </si>
   <si>
     <t>,(Citation: Marshall Abrams July 2008),</t>

--- a/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
+++ b/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
@@ -167,7 +167,7 @@
     <t>01 April 2000</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Andy Greenberg June 2017),(Citation: Charles McLellan March 2016),(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Charles McLellan March 2016),(Citation: Booz Allen Hamilton),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
   </si>
   <si>
     <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>

--- a/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
+++ b/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
@@ -170,7 +170,7 @@
     <t>(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Charles McLellan March 2016),(Citation: Booz Allen Hamilton),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
   </si>
   <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
   </si>
   <si>
     <t>,(Citation: Marshall Abrams July 2008),</t>

--- a/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
+++ b/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
@@ -167,10 +167,10 @@
     <t>01 April 2000</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Charles McLellan March 2016),(Citation: Booz Allen Hamilton),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Andy Greenberg June 2017),(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
   </si>
   <si>
     <t>,(Citation: Marshall Abrams July 2008),</t>

--- a/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
+++ b/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
@@ -167,10 +167,10 @@
     <t>01 April 2000</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Andy Greenberg June 2017),(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Booz Allen Hamilton),(Citation: Andy Greenberg June 2017),(Citation: Ukraine15 - EISAC - 201603),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
   </si>
   <si>
     <t>,(Citation: Marshall Abrams July 2008),</t>

--- a/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
+++ b/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
@@ -167,10 +167,10 @@
     <t>01 April 2000</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Booz Allen Hamilton),(Citation: Andy Greenberg June 2017),(Citation: Ukraine15 - EISAC - 201603),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Ukraine15 - EISAC - 201603),(Citation: Andy Greenberg June 2017),(Citation: Booz Allen Hamilton),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
   </si>
   <si>
     <t>,(Citation: Marshall Abrams July 2008),</t>

--- a/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
+++ b/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
@@ -167,10 +167,10 @@
     <t>01 April 2000</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Ukraine15 - EISAC - 201603),(Citation: Andy Greenberg June 2017),(Citation: Booz Allen Hamilton),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Ukraine15 - EISAC - 201603),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
   </si>
   <si>
     <t>,(Citation: Marshall Abrams July 2008),</t>

--- a/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
+++ b/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
@@ -167,10 +167,10 @@
     <t>01 April 2000</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Ukraine15 - EISAC - 201603),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
   </si>
   <si>
     <t>,(Citation: Marshall Abrams July 2008),</t>

--- a/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
+++ b/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
@@ -167,10 +167,10 @@
     <t>01 April 2000</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Andy Greenberg June 2017),(Citation: Ukraine15 - EISAC - 201603),(Citation: Charles McLellan March 2016),(Citation: Booz Allen Hamilton),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
   </si>
   <si>
     <t>,(Citation: Marshall Abrams July 2008),</t>

--- a/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
+++ b/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
@@ -167,10 +167,10 @@
     <t>01 April 2000</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Andy Greenberg June 2017),(Citation: Ukraine15 - EISAC - 201603),(Citation: Charles McLellan March 2016),(Citation: Booz Allen Hamilton),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Andy Greenberg June 2017),(Citation: Ukraine15 - EISAC - 201603),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
   </si>
   <si>
     <t>,(Citation: Marshall Abrams July 2008),</t>

--- a/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
+++ b/versions/v14/docs/ics-attack-v14.1/ics-attack-v14.1-campaigns.xlsx
@@ -167,10 +167,10 @@
     <t>01 April 2000</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Andy Greenberg June 2017),(Citation: Ukraine15 - EISAC - 201603),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Andy Greenberg June 2017),(Citation: Charles McLellan March 2016),(Citation: Ukraine15 - EISAC - 201603),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
   </si>
   <si>
     <t>,(Citation: Marshall Abrams July 2008),</t>
